--- a/orders.xlsx
+++ b/orders.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjoseph\PycharmProjects\CHUBU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A21142-0D01-4E25-BC40-2E0BC9BF319B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C38EDA-570F-4ADF-A451-19B8FCB1EE9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="4335" windowWidth="20955" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2625" yWindow="2985" windowWidth="25575" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>GROUND</t>
   </si>
@@ -54,26 +54,26 @@
     <t>PSI-04509860</t>
   </si>
   <si>
-    <t>1Z2V351V0323654320</t>
-  </si>
-  <si>
-    <t>PSI-04509861</t>
-  </si>
-  <si>
-    <t>1Z2V351V0323656202</t>
-  </si>
-  <si>
-    <t>PSI-04509891</t>
-  </si>
-  <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>STAPLESADV</t>
+  </si>
+  <si>
+    <t>NJEC54</t>
+  </si>
+  <si>
+    <t>1Z2V351V0324309228</t>
+  </si>
+  <si>
+    <t>PSI-04645246</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +95,18 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -139,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -160,6 +172,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,7 +484,7 @@
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
@@ -485,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -505,39 +526,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7">
-        <v>79315206</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7" t="s">
+    <row r="3" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="B3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>81938552</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -1120,22 +1131,8 @@
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="2"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B90:B1048576 B1">
+  <conditionalFormatting sqref="B88:B1048576 B1">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
